--- a/ig/ch-allergyintolerance/all-profiles.xlsx
+++ b/ig/ch-allergyintolerance/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -1839,7 +1839,7 @@
     <t>draft</t>
   </si>
   <si>
-    <t>2023-12-19T18:02:31+01:00</t>
+    <t>2023-12-28T10:42:38+01:00</t>
   </si>
   <si>
     <t>This profile represents the constraints applied to the Condition resource in the context of AllergyIntolerance as a problem-list item or a encounter-diagnosis entry in the Swiss realm - in adaption of the respective usecases provided in the Implementation Guide for Use of SNOMED CT in Documentation of Allergy, Non-allergic Hypersensitivity and Intolerance.</t>
@@ -5240,17 +5240,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.01953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="68.90625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="43.109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="21.94140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.06640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="66.625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="41.68359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="21.1796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="38.4609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5259,21 +5259,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="50.390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="92.3515625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="40.39453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="49.71875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="162.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="91.0234375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="15.703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="38.89453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
